--- a/examples/sources/data/unsolved/to_schedule/2019-04-11.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-11.xlsx
@@ -5083,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" s="2">
         <v>43566</v>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="N100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" s="2">
         <v>43566</v>
@@ -5716,7 +5716,7 @@
         <v>1</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" s="2">
         <v>43566</v>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O113" s="2">
         <v>43566</v>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" s="2">
         <v>43566</v>
@@ -6094,7 +6094,7 @@
         <v>1</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119" s="2">
         <v>43566</v>
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="M120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -7178,7 +7178,7 @@
         <v>1</v>
       </c>
       <c r="N145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145" s="2">
         <v>43566</v>
@@ -7342,7 +7342,7 @@
         <v>1</v>
       </c>
       <c r="N149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O149" s="2">
         <v>43566</v>
@@ -7465,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="N152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O152" s="2">
         <v>43566</v>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N157">
         <v>1</v>
